--- a/金融/个股机器学习/MV投资组合构建/风险投资组合分析.xlsx
+++ b/金融/个股机器学习/MV投资组合构建/风险投资组合分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11470\Desktop\HARISAN\Various-Codes\金融\个股机器学习\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11470\Desktop\HARISAN\Various-Codes\金融\个股机器学习\MV投资组合构建\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6E65CF-2CE5-4E1C-A4F7-E5618DCFE635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A46634D-EDB0-491C-A34B-8213DE7DFC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3310" yWindow="2210" windowWidth="21500" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -62,34 +51,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>688286.SH</t>
+    <t>688150.SH</t>
   </si>
   <si>
-    <t>688700.SH</t>
+    <t>002347.SZ</t>
   </si>
   <si>
-    <t>603392.SH</t>
+    <t>300829.SZ</t>
   </si>
   <si>
-    <t>603097.SH</t>
+    <t>688722.SH</t>
   </si>
   <si>
-    <t>002480.SZ</t>
+    <t>300026.SZ</t>
   </si>
   <si>
-    <t>002992.SZ</t>
+    <t>000983.SZ</t>
   </si>
   <si>
-    <t>600766.SH</t>
+    <t>600884.SH</t>
   </si>
   <si>
-    <t>301031.SZ</t>
+    <t>603077.SH</t>
   </si>
   <si>
-    <t>688377.SH</t>
+    <t>300723.SZ</t>
   </si>
   <si>
-    <t>002395.SZ</t>
+    <t>600706.SH</t>
   </si>
 </sst>
 </file>
@@ -183,8 +172,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="Sheet2"/>
@@ -455,7 +447,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D68" sqref="D68:L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -469,7 +461,7 @@
       </c>
       <c r="B1" s="1">
         <f ca="1">[1]!thsiFinD("ths_28rnhsyl_fund",C1,D4)</f>
-        <v>2.0981721266654998</v>
+        <v>1.9958076248334999</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -493,43 +485,43 @@
       </c>
       <c r="E2" s="4" t="str">
         <f>B3&amp;A3</f>
-        <v>敏芯股份688286.SH</v>
+        <v>莱特光电688150.SH</v>
       </c>
       <c r="F2" t="str">
         <f>B4&amp;A4</f>
-        <v>东威科技688700.SH</v>
+        <v>泰尔股份002347.SZ</v>
       </c>
       <c r="G2" t="str">
         <f>B5&amp;A5</f>
-        <v>万泰生物603392.SH</v>
+        <v>金丹科技300829.SZ</v>
       </c>
       <c r="H2" t="str">
         <f>B6&amp;A6</f>
-        <v>江苏华辰603097.SH</v>
+        <v>同益中688722.SH</v>
       </c>
       <c r="I2" t="str">
         <f>B7&amp;A7</f>
-        <v>新筑股份002480.SZ</v>
+        <v>红日药业300026.SZ</v>
       </c>
       <c r="J2" t="str">
         <f>B8&amp;A8</f>
-        <v>宝明科技002992.SZ</v>
+        <v>山西焦煤000983.SZ</v>
       </c>
       <c r="K2" t="str">
         <f>B9&amp;A9</f>
-        <v>*ST园城600766.SH</v>
+        <v>杉杉股份600884.SH</v>
       </c>
       <c r="L2" t="str">
         <f>B10&amp;A10</f>
-        <v>中熔电气301031.SZ</v>
+        <v>和邦生物603077.SH</v>
       </c>
       <c r="M2" t="str">
         <f>B11&amp;A11</f>
-        <v>迪威尔688377.SH</v>
+        <v>一品红300723.SZ</v>
       </c>
       <c r="N2" t="str">
         <f>B12&amp;A12</f>
-        <v>双象股份002395.SZ</v>
+        <v>曲江文旅600706.SH</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -538,55 +530,55 @@
       </c>
       <c r="B3" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A3)</f>
-        <v>敏芯股份</v>
+        <v>莱特光电</v>
       </c>
       <c r="C3" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A3,$D$4,100,"")</f>
-        <v>43.59</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="D3" s="5">
         <f ca="1">TODAY()</f>
-        <v>45318</v>
+        <v>45394</v>
       </c>
       <c r="E3">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D3)</f>
-        <v>0</v>
+        <v>-3.1341821743388998</v>
       </c>
       <c r="F3">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D3)</f>
-        <v>0</v>
+        <v>-0.62630480167015001</v>
       </c>
       <c r="G3">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D3)</f>
-        <v>0</v>
+        <v>-0.90634441087615003</v>
       </c>
       <c r="H3">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D3)</f>
-        <v>0</v>
+        <v>-1.2573344509640001</v>
       </c>
       <c r="I3">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D3)</f>
-        <v>0</v>
+        <v>-2.1108179419524999</v>
       </c>
       <c r="J3">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D3)</f>
-        <v>0</v>
+        <v>-9.0909090909088996E-2</v>
       </c>
       <c r="K3">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D3)</f>
-        <v>0</v>
+        <v>-2.880658436214</v>
       </c>
       <c r="L3">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D3)</f>
-        <v>0</v>
+        <v>-0.42194092827004998</v>
       </c>
       <c r="M3">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D3)</f>
-        <v>0</v>
+        <v>-2.0600858369099</v>
       </c>
       <c r="N3">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D3)</f>
-        <v>0</v>
+        <v>-1.1571254567600999</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -595,55 +587,55 @@
       </c>
       <c r="B4" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A4)</f>
-        <v>东威科技</v>
+        <v>泰尔股份</v>
       </c>
       <c r="C4" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A4,$D$4,100,"")</f>
-        <v>40.369999999999997</v>
+        <v>4.79</v>
       </c>
       <c r="D4" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45317</v>
+        <v>45393</v>
       </c>
       <c r="E4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D4)</f>
-        <v>-4.617067833698</v>
+        <v>0.54160512063025001</v>
       </c>
       <c r="F4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D4)</f>
-        <v>-4.7652748289691003</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D4)</f>
-        <v>-6.6247101689299995E-2</v>
+        <v>-0.60060060060058995</v>
       </c>
       <c r="H4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D4)</f>
-        <v>-2.5594970812753002</v>
+        <v>-8.3752093802342997E-2</v>
       </c>
       <c r="I4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D4)</f>
-        <v>0.87912087912087999</v>
+        <v>-0.26315789473683998</v>
       </c>
       <c r="J4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D4)</f>
-        <v>-3.2319032319032002</v>
+        <v>1.010101010101</v>
       </c>
       <c r="K4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D4)</f>
-        <v>-2.1456436931079002</v>
+        <v>-1.6194331983806001</v>
       </c>
       <c r="L4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D4)</f>
-        <v>-3.4542789078248002</v>
+        <v>0.42372881355933001</v>
       </c>
       <c r="M4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D4)</f>
-        <v>-4.9230769230769003</v>
+        <v>-0.42735042735042</v>
       </c>
       <c r="N4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D4)</f>
-        <v>-3.0674846625767</v>
+        <v>1.42063001853</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -652,55 +644,55 @@
       </c>
       <c r="B5" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A5)</f>
-        <v>万泰生物</v>
+        <v>金丹科技</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A5,$D$4,100,"")</f>
-        <v>60.34</v>
+        <v>16.55</v>
       </c>
       <c r="D5" s="6">
         <f ca="1">D4-1</f>
-        <v>45316</v>
+        <v>45392</v>
       </c>
       <c r="E5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D5)</f>
-        <v>-2.7038535235255998</v>
+        <v>-2.5431861804223002</v>
       </c>
       <c r="F5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D5)</f>
-        <v>2.0216606498195002</v>
+        <v>-2.8397565922921002</v>
       </c>
       <c r="G5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D5)</f>
-        <v>-2.6129032258064</v>
+        <v>-2.3460410557185001</v>
       </c>
       <c r="H5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D5)</f>
-        <v>0.67811934900542004</v>
+        <v>-3.3980582524271998</v>
       </c>
       <c r="I5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D5)</f>
-        <v>4.1189931350114</v>
+        <v>-2.0618556701031001</v>
       </c>
       <c r="J5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D5)</f>
-        <v>1.1276758409786001</v>
+        <v>1.6806722689075999</v>
       </c>
       <c r="K5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D5)</f>
-        <v>-0.64599483204134001</v>
+        <v>-0.72347266881029004</v>
       </c>
       <c r="L5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D5)</f>
-        <v>-2.2218240458699001</v>
+        <v>-0.42194092827004998</v>
       </c>
       <c r="M5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D5)</f>
-        <v>-0.81383519837232998</v>
+        <v>-1.8867924528302</v>
       </c>
       <c r="N5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D5)</f>
-        <v>1.4943960149440001</v>
+        <v>1.0611735330837</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -709,55 +701,55 @@
       </c>
       <c r="B6" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A6)</f>
-        <v>江苏华辰</v>
+        <v>同益中</v>
       </c>
       <c r="C6" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A6,$D$4,100,"")</f>
-        <v>21.7</v>
+        <v>11.93</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" ref="D6:D48" ca="1" si="0">D5-1</f>
-        <v>45315</v>
+        <v>45391</v>
       </c>
       <c r="E6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D6)</f>
-        <v>-3.1746031746032002</v>
+        <v>2.6600985221675</v>
       </c>
       <c r="F6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D6)</f>
-        <v>-1.3064133016627</v>
+        <v>2.4948024948024998</v>
       </c>
       <c r="G6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D6)</f>
-        <v>-3.6668738346799001</v>
+        <v>2.0958083832334999</v>
       </c>
       <c r="H6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D6)</f>
-        <v>-0.80717488789238001</v>
+        <v>1.3945857260048999</v>
       </c>
       <c r="I6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D6)</f>
-        <v>2.5821596244132001</v>
+        <v>1.0416666666667</v>
       </c>
       <c r="J6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D6)</f>
-        <v>-0.13361328497805</v>
+        <v>2.6845637583893001</v>
       </c>
       <c r="K6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D6)</f>
-        <v>-0.38610038610038</v>
+        <v>4.1876046901172996</v>
       </c>
       <c r="L6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D6)</f>
-        <v>-0.42818911685993999</v>
+        <v>1.7167381974249001</v>
       </c>
       <c r="M6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D6)</f>
-        <v>-2.6732673267327001</v>
+        <v>3.2467532467532001</v>
       </c>
       <c r="N6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D6)</f>
-        <v>0.37499999999999001</v>
+        <v>4.296875</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -766,55 +758,55 @@
       </c>
       <c r="B7" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A7)</f>
-        <v>新筑股份</v>
+        <v>红日药业</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A7,$D$4,100,"")</f>
-        <v>4.59</v>
+        <v>3.79</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45314</v>
+        <v>45390</v>
       </c>
       <c r="E7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D7)</f>
-        <v>-1</v>
+        <v>-1.0238907849829</v>
       </c>
       <c r="F7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D7)</f>
-        <v>-0.94117647058822995</v>
+        <v>-4.5634920634920997</v>
       </c>
       <c r="G7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D7)</f>
-        <v>1.3543307086614</v>
+        <v>-4.5168667810176997</v>
       </c>
       <c r="H7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D7)</f>
-        <v>-1.2400354295836999</v>
+        <v>-4.9141965678627004</v>
       </c>
       <c r="I7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D7)</f>
-        <v>-1.3888888888888999</v>
+        <v>-2.7848101265823</v>
       </c>
       <c r="J7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D7)</f>
-        <v>2.1247563352826999</v>
+        <v>9.5969289827253002E-2</v>
       </c>
       <c r="K7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D7)</f>
-        <v>-0.63938618925832003</v>
+        <v>-2.291325695581</v>
       </c>
       <c r="L7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D7)</f>
-        <v>4.0660972892684999</v>
+        <v>-1.271186440678</v>
       </c>
       <c r="M7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D7)</f>
-        <v>-1.8941233608548</v>
+        <v>-2.8186790071518999</v>
       </c>
       <c r="N7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D7)</f>
-        <v>-2.4390243902439002</v>
+        <v>-0.71105365223012995</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -823,55 +815,55 @@
       </c>
       <c r="B8" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A8)</f>
-        <v>宝明科技</v>
+        <v>山西焦煤</v>
       </c>
       <c r="C8" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A8,$D$4,100,"")</f>
-        <v>51.2</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45313</v>
+        <v>45389</v>
       </c>
       <c r="E8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D8)</f>
-        <v>-7.6343072573043997</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D8)</f>
-        <v>-8.6021505376343992</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D8)</f>
-        <v>-5.5200119029905999</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D8)</f>
-        <v>-10.003985651654</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D8)</f>
-        <v>-6.0869565217390997</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D8)</f>
-        <v>-7.4007220216606999</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D8)</f>
-        <v>-4.9817739975699</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D8)</f>
-        <v>-7.1699413995174002</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D8)</f>
-        <v>-7.8747203579417997</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D8)</f>
-        <v>-5.1474840948524996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -880,15 +872,15 @@
       </c>
       <c r="B9" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A9)</f>
-        <v>*ST园城</v>
+        <v>杉杉股份</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A9,$D$4,100,"")</f>
-        <v>15.05</v>
+        <v>12.15</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45312</v>
+        <v>45388</v>
       </c>
       <c r="E9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D9)</f>
@@ -937,15 +929,15 @@
       </c>
       <c r="B10" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A10)</f>
-        <v>中熔电气</v>
+        <v>和邦生物</v>
       </c>
       <c r="C10" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A10,$D$4,100,"")</f>
-        <v>105.37</v>
+        <v>2.37</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45311</v>
+        <v>45387</v>
       </c>
       <c r="E10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D10)</f>
@@ -994,55 +986,55 @@
       </c>
       <c r="B11" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A11)</f>
-        <v>迪威尔</v>
+        <v>一品红</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A11,$D$4,100,"")</f>
-        <v>18.54</v>
+        <v>23.3</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45310</v>
+        <v>45386</v>
       </c>
       <c r="E11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D11)</f>
-        <v>-2.4816176470587998</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D11)</f>
-        <v>-2.1670523879655001</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D11)</f>
-        <v>-2.5942028985507002</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D11)</f>
-        <v>-10.007173601148001</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D11)</f>
-        <v>-0.86206896551723999</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D11)</f>
-        <v>-3.0621172353456001</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D11)</f>
-        <v>1.9195046439629</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D11)</f>
-        <v>-3.5090636953268</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D11)</f>
-        <v>-0.35666518056174001</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D11)</f>
-        <v>-5.3639846743295001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1051,55 +1043,55 @@
       </c>
       <c r="B12" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A12)</f>
-        <v>双象股份</v>
+        <v>曲江文旅</v>
       </c>
       <c r="C12" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A12,$D$4,100,"")</f>
-        <v>15.8</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45309</v>
+        <v>45385</v>
       </c>
       <c r="E12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D12)</f>
-        <v>-2.1582733812949999</v>
+        <v>-0.48520135856378999</v>
       </c>
       <c r="F12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D12)</f>
-        <v>-0.48157453936347999</v>
+        <v>-2.7027027027027</v>
       </c>
       <c r="G12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D12)</f>
-        <v>1.4855125753787</v>
+        <v>1.0982658959536999</v>
       </c>
       <c r="H12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D12)</f>
-        <v>-4.4551062371486996</v>
+        <v>-2.0626432391137999</v>
       </c>
       <c r="I12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D12)</f>
-        <v>-2.3157894736842</v>
+        <v>-0.75376884422110002</v>
       </c>
       <c r="J12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D12)</f>
-        <v>-3.5443037974684</v>
+        <v>2.9644268774703999</v>
       </c>
       <c r="K12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D12)</f>
-        <v>-2.4169184290030001</v>
+        <v>-0.16339869281045</v>
       </c>
       <c r="L12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D12)</f>
-        <v>-1.0205761316872</v>
+        <v>0.42553191489360997</v>
       </c>
       <c r="M12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D12)</f>
-        <v>-2.5206431986092999</v>
+        <v>-3.2953620829942998</v>
       </c>
       <c r="N12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D12)</f>
-        <v>-1.7741935483871001</v>
+        <v>-2.3358585858585998</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1107,47 +1099,47 @@
       <c r="B13" s="2"/>
       <c r="D13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45308</v>
+        <v>45384</v>
       </c>
       <c r="E13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D13)</f>
-        <v>-2.6099141706078002</v>
+        <v>-2.2759601706970001</v>
       </c>
       <c r="F13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D13)</f>
-        <v>-5.2756842522807998</v>
+        <v>-2.0793950850662002</v>
       </c>
       <c r="G13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D13)</f>
-        <v>-4.1178959244111999</v>
+        <v>1.1104617182934</v>
       </c>
       <c r="H13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D13)</f>
-        <v>-8.3254791077599997</v>
+        <v>-1.8004501125281001</v>
       </c>
       <c r="I13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D13)</f>
-        <v>-2.2633744855967</v>
+        <v>-0.25062656641605002</v>
       </c>
       <c r="J13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D13)</f>
-        <v>-5.9523809523809996</v>
+        <v>9.8911968348167997E-2</v>
       </c>
       <c r="K13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D13)</f>
-        <v>-2.6470588235294001</v>
+        <v>1.1570247933883999</v>
       </c>
       <c r="L13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D13)</f>
-        <v>-2.1108604576216998</v>
+        <v>1.2931034482759001</v>
       </c>
       <c r="M13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D13)</f>
-        <v>-3.4815436241611</v>
+        <v>-3.4943070278758999</v>
       </c>
       <c r="N13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D13)</f>
-        <v>-8.1481481481481008</v>
+        <v>-0.31466331025803002</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1155,99 +1147,99 @@
       <c r="B14" s="2"/>
       <c r="D14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45307</v>
+        <v>45383</v>
       </c>
       <c r="E14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D14)</f>
-        <v>-3.4826711749789001</v>
+        <v>3.7893700787402</v>
       </c>
       <c r="F14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D14)</f>
-        <v>0.15891934843066999</v>
+        <v>2.9182879377431998</v>
       </c>
       <c r="G14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D14)</f>
-        <v>-3.1681005052573998</v>
+        <v>3.9489671931956001</v>
       </c>
       <c r="H14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D14)</f>
-        <v>9.9861782999309003</v>
+        <v>4.9606299212598</v>
       </c>
       <c r="I14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D14)</f>
-        <v>-1.6194331983806001</v>
+        <v>2.0460358056265999</v>
       </c>
       <c r="J14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D14)</f>
-        <v>-0.52108005684508996</v>
+        <v>-2.0348837209302002</v>
       </c>
       <c r="K14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D14)</f>
-        <v>-0.87463556851310997</v>
+        <v>3.1543052003410001</v>
       </c>
       <c r="L14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D14)</f>
-        <v>-0.45713369155505001</v>
+        <v>0.86956521739130999</v>
       </c>
       <c r="M14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D14)</f>
-        <v>-3.2860040567950999</v>
+        <v>0.27559055118109999</v>
       </c>
       <c r="N14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D14)</f>
-        <v>0</v>
+        <v>1.1457670273711</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45306</v>
+        <v>45382</v>
       </c>
       <c r="E15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D15)</f>
-        <v>4.3762131639315003</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D15)</f>
-        <v>-2.4985473561883</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D15)</f>
-        <v>-0.2316076294278</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D15)</f>
-        <v>9.9961991638159997</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D15)</f>
-        <v>-0.4032258064516</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D15)</f>
-        <v>-1.1086820737039</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D15)</f>
-        <v>-2.1677124928693998</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D15)</f>
-        <v>-1.8961447678993</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D15)</f>
-        <v>1.0245901639343999</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D15)</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45305</v>
+        <v>45381</v>
       </c>
       <c r="E16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D16)</f>
@@ -1293,35 +1285,35 @@
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45304</v>
+        <v>45380</v>
       </c>
       <c r="E17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D17)</f>
-        <v>0</v>
+        <v>5.2849740932642</v>
       </c>
       <c r="F17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D17)</f>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D17)</f>
-        <v>0</v>
+        <v>1.7305315203956</v>
       </c>
       <c r="H17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D17)</f>
-        <v>0</v>
+        <v>-1.244167962675</v>
       </c>
       <c r="I17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D17)</f>
-        <v>0</v>
+        <v>0.25641025641026</v>
       </c>
       <c r="J17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D17)</f>
-        <v>0</v>
+        <v>1.077375122429</v>
       </c>
       <c r="K17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D17)</f>
-        <v>0</v>
+        <v>0.42808219178083001</v>
       </c>
       <c r="L17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D17)</f>
@@ -1329,247 +1321,247 @@
       </c>
       <c r="M17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D17)</f>
-        <v>0</v>
+        <v>-1.7788089713844</v>
       </c>
       <c r="N17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D17)</f>
-        <v>0</v>
+        <v>4.2468480424684998</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45303</v>
+        <v>45379</v>
       </c>
       <c r="E18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D18)</f>
-        <v>-3.8024104566286998</v>
+        <v>2.1164021164020999</v>
       </c>
       <c r="F18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D18)</f>
-        <v>-0.15470895378069999</v>
+        <v>4.3841336116910004</v>
       </c>
       <c r="G18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D18)</f>
-        <v>-3.0254987448803998</v>
+        <v>1.2515644555695</v>
       </c>
       <c r="H18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D18)</f>
-        <v>9.9916387959865993</v>
+        <v>4.8084759576201996</v>
       </c>
       <c r="I18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D18)</f>
-        <v>-0.99800399201596002</v>
+        <v>0.51546391752577003</v>
       </c>
       <c r="J18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D18)</f>
-        <v>-0.71317829457363002</v>
+        <v>0.78973346495557994</v>
       </c>
       <c r="K18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D18)</f>
-        <v>1.8593840790238001</v>
+        <v>0.60292850990526003</v>
       </c>
       <c r="L18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D18)</f>
-        <v>1.7288298383223999</v>
+        <v>0.43668122270741</v>
       </c>
       <c r="M18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D18)</f>
-        <v>-1.8108651911469</v>
+        <v>0.66173608407939999</v>
       </c>
       <c r="N18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D18)</f>
-        <v>2.7397260273973001</v>
+        <v>1.1409395973154</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45302</v>
+        <v>45378</v>
       </c>
       <c r="E19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D19)</f>
-        <v>5.0951086956512001E-2</v>
+        <v>1.123595505618</v>
       </c>
       <c r="F19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D19)</f>
-        <v>2.5788534021028</v>
+        <v>-8.0614203454894007</v>
       </c>
       <c r="G19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D19)</f>
-        <v>-1.4453125</v>
+        <v>-2.3227383863080999</v>
       </c>
       <c r="H19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D19)</f>
-        <v>0.50420168067227</v>
+        <v>-3.5377358490566002</v>
       </c>
       <c r="I19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D19)</f>
-        <v>1.8292682926829</v>
+        <v>-1.2722646310432999</v>
       </c>
       <c r="J19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D19)</f>
-        <v>0.78125</v>
+        <v>-0.78354554358471995</v>
       </c>
       <c r="K19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D19)</f>
-        <v>3.9879154078550001</v>
+        <v>-5.3789731051345004</v>
       </c>
       <c r="L19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D19)</f>
-        <v>4.6223413163623999</v>
+        <v>-0.43478260869564</v>
       </c>
       <c r="M19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D19)</f>
-        <v>-2.1653543307087002</v>
+        <v>1.2214342001576</v>
       </c>
       <c r="N19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D19)</f>
-        <v>-5.1948051948052001</v>
+        <v>-0.73284477015323002</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45301</v>
+        <v>45377</v>
       </c>
       <c r="E20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D20)</f>
-        <v>-1.5878321912083999</v>
+        <v>-3.4607438016529</v>
       </c>
       <c r="F20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D20)</f>
-        <v>-0.6307904592943</v>
+        <v>0.57915057915057999</v>
       </c>
       <c r="G20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D20)</f>
-        <v>-5.9399877526026001</v>
+        <v>0.73891625615764001</v>
       </c>
       <c r="H20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D20)</f>
-        <v>-4.3792687826436003</v>
+        <v>-2.6778882938025999</v>
       </c>
       <c r="I20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D20)</f>
-        <v>-0.40485829959515002</v>
+        <v>1.5503875968992</v>
       </c>
       <c r="J20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D20)</f>
-        <v>-0.31152647975078002</v>
+        <v>-1.7324350336862</v>
       </c>
       <c r="K20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D20)</f>
-        <v>-1.9549763033175001</v>
+        <v>3.1959629941126999</v>
       </c>
       <c r="L20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D20)</f>
-        <v>-1.1669287428619</v>
+        <v>-0.43290043290044</v>
       </c>
       <c r="M20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D20)</f>
-        <v>-0.70367474589523005</v>
+        <v>2.0096463022508</v>
       </c>
       <c r="N20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D20)</f>
-        <v>6.7961165048543997</v>
+        <v>-0.92409240924092995</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45300</v>
+        <v>45376</v>
       </c>
       <c r="E21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D21)</f>
-        <v>-1.9341091624324001</v>
+        <v>-4.6774987690792997</v>
       </c>
       <c r="F21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D21)</f>
-        <v>-1.7812197483059</v>
+        <v>-5.3016453382083997</v>
       </c>
       <c r="G21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D21)</f>
-        <v>-6.1494252873562996</v>
+        <v>-3.9621525724423998</v>
       </c>
       <c r="H21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D21)</f>
-        <v>0.28203062046736999</v>
+        <v>3.7301587301587</v>
       </c>
       <c r="I21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D21)</f>
-        <v>0.40650406504066</v>
+        <v>-2.0253164556962</v>
       </c>
       <c r="J21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D21)</f>
-        <v>-5.2817940395397001</v>
+        <v>-1.329534662868</v>
       </c>
       <c r="K21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D21)</f>
-        <v>-0.29533372711164002</v>
+        <v>-1.8166804293972001</v>
       </c>
       <c r="L21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D21)</f>
-        <v>-1.3391034539071001</v>
+        <v>-0.85836909871245004</v>
       </c>
       <c r="M21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D21)</f>
-        <v>1.4274385408406001</v>
+        <v>-1.2698412698413</v>
       </c>
       <c r="N21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D21)</f>
-        <v>0.51115241635687003</v>
+        <v>-1.4313597918022001</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45299</v>
+        <v>45375</v>
       </c>
       <c r="E22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D22)</f>
-        <v>-3.5872313527181001</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D22)</f>
-        <v>0.19398642095054</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D22)</f>
-        <v>8.2762912258867996</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D22)</f>
-        <v>-10.007251631617001</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D22)</f>
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D22)</f>
-        <v>-2.1933621933622001</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D22)</f>
-        <v>-3.9705048213273</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D22)</f>
-        <v>-3.1857707509880999</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D22)</f>
-        <v>-0.19786307874951001</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D22)</f>
-        <v>10.020449897751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45298</v>
+        <v>45374</v>
       </c>
       <c r="E23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D23)</f>
@@ -1615,237 +1607,237 @@
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45297</v>
+        <v>45373</v>
       </c>
       <c r="E24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D24)</f>
-        <v>0</v>
+        <v>-1.6940948693127</v>
       </c>
       <c r="F24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D24)</f>
-        <v>0</v>
+        <v>-4.8695652173913002</v>
       </c>
       <c r="G24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D24)</f>
-        <v>0</v>
+        <v>-2.3108030040438998</v>
       </c>
       <c r="H24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D24)</f>
-        <v>0</v>
+        <v>-0.63091482649842001</v>
       </c>
       <c r="I24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D24)</f>
-        <v>0</v>
+        <v>-2.2277227722771999</v>
       </c>
       <c r="J24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D24)</f>
-        <v>0</v>
+        <v>-0.56657223796033995</v>
       </c>
       <c r="K24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D24)</f>
-        <v>0</v>
+        <v>-1.8638573743922</v>
       </c>
       <c r="L24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D24)</f>
-        <v>0</v>
+        <v>-2.5104602510460001</v>
       </c>
       <c r="M24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D24)</f>
-        <v>0</v>
+        <v>-3.8167938931298</v>
       </c>
       <c r="N24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D24)</f>
-        <v>0</v>
+        <v>-1.2845215157354</v>
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45296</v>
+        <v>45372</v>
       </c>
       <c r="E25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D25)</f>
-        <v>-4.9707163237723</v>
+        <v>-1.9458946369245</v>
       </c>
       <c r="F25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D25)</f>
-        <v>-5.4128440366973001</v>
+        <v>-5.7377049180327999</v>
       </c>
       <c r="G25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D25)</f>
-        <v>7.4197860962566997</v>
+        <v>-2.0927601809955001</v>
       </c>
       <c r="H25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D25)</f>
-        <v>7.1900505246793998</v>
+        <v>0.47543581616482</v>
       </c>
       <c r="I25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D25)</f>
-        <v>-1.7681728880156999</v>
+        <v>-0.73710073710073998</v>
       </c>
       <c r="J25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D25)</f>
-        <v>-1.7578678763822</v>
+        <v>-0.93545369504208997</v>
       </c>
       <c r="K25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D25)</f>
-        <v>-2.7041942604856999</v>
+        <v>-1.4376996805111999</v>
       </c>
       <c r="L25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D25)</f>
-        <v>-3.3022473627886</v>
+        <v>-0.8298755186722</v>
       </c>
       <c r="M25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D25)</f>
-        <v>-3.6599313762866998</v>
+        <v>-4.6579330422125</v>
       </c>
       <c r="N25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D25)</f>
-        <v>5.6155507559395001</v>
+        <v>5.4878048780487996</v>
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45295</v>
+        <v>45371</v>
       </c>
       <c r="E26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D26)</f>
-        <v>3.8035853468432999</v>
+        <v>-0.37825059101654002</v>
       </c>
       <c r="F26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D26)</f>
-        <v>-3.1971580817051</v>
+        <v>0.82644628099173001</v>
       </c>
       <c r="G26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D26)</f>
-        <v>-0.26666666666666999</v>
+        <v>-1.6138007790761999</v>
       </c>
       <c r="H26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D26)</f>
-        <v>10.004275331338</v>
+        <v>0.47770700636941998</v>
       </c>
       <c r="I26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D26)</f>
-        <v>0.39447731755422999</v>
+        <v>0.74257425742575001</v>
       </c>
       <c r="J26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D26)</f>
-        <v>-2.5017277125085999</v>
+        <v>2.9865125240847998</v>
       </c>
       <c r="K26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D26)</f>
-        <v>-0.22026431718060999</v>
+        <v>-2.4162120031177001</v>
       </c>
       <c r="L26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D26)</f>
-        <v>1.7737669208029001</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D26)</f>
-        <v>0.38270187523919003</v>
+        <v>-1.646385110952</v>
       </c>
       <c r="N26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D26)</f>
-        <v>-7.1213640922768002</v>
+        <v>2.5712300208477998</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45294</v>
+        <v>45370</v>
       </c>
       <c r="E27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D27)</f>
-        <v>-4.0532455877954003</v>
+        <v>0.71428571428570997</v>
       </c>
       <c r="F27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D27)</f>
-        <v>-1.521777155851</v>
+        <v>2.5423728813559001</v>
       </c>
       <c r="G27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D27)</f>
-        <v>-2.9126213592233001</v>
+        <v>1.468097120271</v>
       </c>
       <c r="H27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D27)</f>
-        <v>-1.7226890756302999</v>
+        <v>-0.23828435266084</v>
       </c>
       <c r="I27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D27)</f>
-        <v>0</v>
+        <v>-1.9417475728155</v>
       </c>
       <c r="J27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D27)</f>
-        <v>-0.13802622498275999</v>
+        <v>0.97276264591440997</v>
       </c>
       <c r="K27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D27)</f>
-        <v>2.5988700564972</v>
+        <v>4.9059689288634001</v>
       </c>
       <c r="L27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D27)</f>
-        <v>0.92650753768843996</v>
+        <v>-0.41322314049586001</v>
       </c>
       <c r="M27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D27)</f>
-        <v>-0.98522167487684997</v>
+        <v>-2.6480836236933998</v>
       </c>
       <c r="N27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D27)</f>
-        <v>-9.9774266365688007</v>
+        <v>1.4094432699084001</v>
       </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45293</v>
+        <v>45369</v>
       </c>
       <c r="E28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D28)</f>
-        <v>-6.7503486750348998</v>
+        <v>-1.0367577756833</v>
       </c>
       <c r="F28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D28)</f>
-        <v>-6.3094067518846</v>
+        <v>10.074626865672</v>
       </c>
       <c r="G28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D28)</f>
-        <v>2.8217755889790999</v>
+        <v>6.3663663663663996</v>
       </c>
       <c r="H28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D28)</f>
-        <v>-0.79199666527719004</v>
+        <v>1.7784963621665</v>
       </c>
       <c r="I28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D28)</f>
-        <v>0.19762845849804</v>
+        <v>1.7283950617284001</v>
       </c>
       <c r="J28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D28)</f>
-        <v>-7.1153846153845999</v>
+        <v>-1.9083969465649</v>
       </c>
       <c r="K28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D28)</f>
-        <v>1.5490533562822999</v>
+        <v>3.2067510548523002</v>
       </c>
       <c r="L28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D28)</f>
-        <v>-2.6001835423677</v>
+        <v>0.41493775933609001</v>
       </c>
       <c r="M28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D28)</f>
-        <v>-1.6032811334824999</v>
+        <v>8.0979284369115003</v>
       </c>
       <c r="N28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D28)</f>
-        <v>9.9801390268122994</v>
+        <v>1.4295925661186999</v>
       </c>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45292</v>
+        <v>45368</v>
       </c>
       <c r="E29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D29)</f>
@@ -1891,7 +1883,7 @@
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45291</v>
+        <v>45367</v>
       </c>
       <c r="E30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D30)</f>
@@ -1937,23 +1929,23 @@
     <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45290</v>
+        <v>45366</v>
       </c>
       <c r="E31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D31)</f>
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="F31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D31)</f>
-        <v>0</v>
+        <v>10.06160164271</v>
       </c>
       <c r="G31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D31)</f>
-        <v>0</v>
+        <v>7.9766536964980004</v>
       </c>
       <c r="H31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D31)</f>
-        <v>0</v>
+        <v>1.2274959083470001</v>
       </c>
       <c r="I31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D31)</f>
@@ -1961,259 +1953,259 @@
       </c>
       <c r="J31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D31)</f>
-        <v>0</v>
+        <v>-2.0560747663551</v>
       </c>
       <c r="K31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D31)</f>
-        <v>0</v>
+        <v>0.42372881355931002</v>
       </c>
       <c r="L31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D31)</f>
-        <v>0</v>
+        <v>1.2605042016807</v>
       </c>
       <c r="M31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D31)</f>
-        <v>0</v>
+        <v>3.0267753201396999</v>
       </c>
       <c r="N31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D31)</f>
-        <v>0</v>
+        <v>1.0108303249098001</v>
       </c>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45289</v>
+        <v>45365</v>
       </c>
       <c r="E32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D32)</f>
-        <v>7.1588701240472004</v>
+        <v>2.3541453428864001</v>
       </c>
       <c r="F32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D32)</f>
-        <v>3.757864308791</v>
+        <v>4.7311827956989001</v>
       </c>
       <c r="G32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D32)</f>
-        <v>10</v>
+        <v>-1.9707565162111</v>
       </c>
       <c r="H32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D32)</f>
-        <v>4.5315904139434</v>
+        <v>-0.89213300892132996</v>
       </c>
       <c r="I32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D32)</f>
-        <v>1.6064257028111999</v>
+        <v>0.24752475247524</v>
       </c>
       <c r="J32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D32)</f>
-        <v>3.8476900545866002</v>
+        <v>9.3545369504207998E-2</v>
       </c>
       <c r="K32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D32)</f>
-        <v>5</v>
+        <v>-1.0896898575020999</v>
       </c>
       <c r="L32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D32)</f>
-        <v>-1.3876319758672999</v>
+        <v>-1.2448132780083001</v>
       </c>
       <c r="M32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D32)</f>
-        <v>1.2839879154078999</v>
+        <v>3.2865731462926</v>
       </c>
       <c r="N32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D32)</f>
-        <v>1.0030090270812</v>
+        <v>0.58097312999273998</v>
       </c>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45288</v>
+        <v>45364</v>
       </c>
       <c r="E33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D33)</f>
-        <v>-0.57949479940564996</v>
+        <v>0.46272493573265</v>
       </c>
       <c r="F33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D33)</f>
-        <v>4.4397087551057002</v>
+        <v>-1.4830508474576001</v>
       </c>
       <c r="G33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D33)</f>
-        <v>-7.9142510448968997</v>
+        <v>0.96277278562260005</v>
       </c>
       <c r="H33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D33)</f>
-        <v>6.6449814126393996</v>
+        <v>-0.48426150121065997</v>
       </c>
       <c r="I33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D33)</f>
-        <v>2.8925619834710998</v>
+        <v>-1.9417475728155</v>
       </c>
       <c r="J33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D33)</f>
-        <v>0.81879194630871999</v>
+        <v>-1.4746543778801999</v>
       </c>
       <c r="K33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D33)</f>
-        <v>0.60606060606060996</v>
+        <v>-0.83125519534497005</v>
       </c>
       <c r="L33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D33)</f>
-        <v>2.3148148148147998</v>
+        <v>-0.82304526748970996</v>
       </c>
       <c r="M33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D33)</f>
-        <v>3.1956352299298998</v>
+        <v>1.2581168831169001</v>
       </c>
       <c r="N33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D33)</f>
-        <v>9.9834528405956995</v>
+        <v>-0.57761732851986003</v>
       </c>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45287</v>
+        <v>45363</v>
       </c>
       <c r="E34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D34)</f>
-        <v>-0.51736881005174995</v>
+        <v>3.0190677966102002</v>
       </c>
       <c r="F34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D34)</f>
-        <v>3.5871964679912001</v>
+        <v>0.85470085470085999</v>
       </c>
       <c r="G34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D34)</f>
-        <v>-3.1217345872518001</v>
+        <v>0.64599483204134001</v>
       </c>
       <c r="H34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D34)</f>
-        <v>4.9756097560976</v>
+        <v>1.1428571428570999</v>
       </c>
       <c r="I34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D34)</f>
-        <v>1.0438413361169001</v>
+        <v>4.3037974683544</v>
       </c>
       <c r="J34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D34)</f>
-        <v>4.8114800225099001</v>
+        <v>-3.6412078152752998</v>
       </c>
       <c r="K34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D34)</f>
-        <v>-3.3957845433255001</v>
+        <v>0.50125313283206996</v>
       </c>
       <c r="L34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D34)</f>
-        <v>-1.1290814769605999</v>
+        <v>-0.40983606557376001</v>
       </c>
       <c r="M34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D34)</f>
-        <v>2.6810724289715999</v>
+        <v>0.77709611451942995</v>
       </c>
       <c r="N34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D34)</f>
-        <v>10.01213592233</v>
+        <v>1.9131714495953001</v>
       </c>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45286</v>
+        <v>45362</v>
       </c>
       <c r="E35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D35)</f>
-        <v>-2.1267361111111001</v>
+        <v>0.15915119363394001</v>
       </c>
       <c r="F35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D35)</f>
-        <v>-1.1995637949836</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D35)</f>
-        <v>10</v>
+        <v>3.2688458972648</v>
       </c>
       <c r="H35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D35)</f>
-        <v>-4.4289044289044002</v>
+        <v>3.0277544154751999</v>
       </c>
       <c r="I35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D35)</f>
-        <v>-2.6422764227641999</v>
+        <v>1.5424164524421999</v>
       </c>
       <c r="J35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D35)</f>
-        <v>-1.4830214830215001</v>
+        <v>-5.0590219224283004</v>
       </c>
       <c r="K35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D35)</f>
-        <v>-5.0055617352614004</v>
+        <v>6.4</v>
       </c>
       <c r="L35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D35)</f>
-        <v>-1.790664568817</v>
+        <v>0.82644628099174</v>
       </c>
       <c r="M35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D35)</f>
-        <v>-1.2643224022126001</v>
+        <v>6.6753926701571</v>
       </c>
       <c r="N35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D35)</f>
-        <v>10.013351134845999</v>
+        <v>0.59215396002960996</v>
       </c>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45285</v>
+        <v>45361</v>
       </c>
       <c r="E36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D36)</f>
-        <v>4.7114073625208004</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D36)</f>
-        <v>-1.9076484221786001</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D36)</f>
-        <v>7.8400991633096</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D36)</f>
-        <v>1.2747875354108</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D36)</f>
-        <v>1.4432989690722</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D36)</f>
-        <v>-0.90646889163576005</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D36)</f>
-        <v>-5.0184891706285999</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D36)</f>
-        <v>-1.2649800266311999</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D36)</f>
-        <v>-0.58915946582876</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D36)</f>
-        <v>9.9853157121879992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45284</v>
+        <v>45360</v>
       </c>
       <c r="E37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D37)</f>
@@ -2259,283 +2251,283 @@
     <row r="38" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45283</v>
+        <v>45359</v>
       </c>
       <c r="E38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D38)</f>
-        <v>0</v>
+        <v>5.1897321428570997</v>
       </c>
       <c r="F38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D38)</f>
-        <v>0</v>
+        <v>0.21413276231263001</v>
       </c>
       <c r="G38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D38)</f>
-        <v>0</v>
+        <v>-0.13324450366422</v>
       </c>
       <c r="H38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D38)</f>
-        <v>0</v>
+        <v>1.1054421768708</v>
       </c>
       <c r="I38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D38)</f>
-        <v>0</v>
+        <v>0.25773195876289001</v>
       </c>
       <c r="J38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D38)</f>
-        <v>0</v>
+        <v>-1.0842368640533999</v>
       </c>
       <c r="K38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D38)</f>
-        <v>0</v>
+        <v>1.7179023508136999</v>
       </c>
       <c r="L38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D38)</f>
-        <v>0</v>
+        <v>0.83333333333333004</v>
       </c>
       <c r="M38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D38)</f>
-        <v>0</v>
+        <v>1.0136624063463999</v>
       </c>
       <c r="N38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D38)</f>
-        <v>0</v>
+        <v>-3.1541218637993</v>
       </c>
     </row>
     <row r="39" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45282</v>
+        <v>45358</v>
       </c>
       <c r="E39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D39)</f>
-        <v>-2.9264705882353002</v>
+        <v>-5.5772448410473997E-2</v>
       </c>
       <c r="F39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D39)</f>
-        <v>-1.0758377425043999</v>
+        <v>1.3015184381778999</v>
       </c>
       <c r="G39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D39)</f>
-        <v>1.1123296255679</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D39)</f>
-        <v>2.7656477438136999</v>
+        <v>-1.1764705882352999</v>
       </c>
       <c r="I39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D39)</f>
-        <v>-2.4144869215292002</v>
+        <v>-0.51282051282051</v>
       </c>
       <c r="J39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D39)</f>
-        <v>-2.6604278074866001</v>
+        <v>0.16708437761069</v>
       </c>
       <c r="K39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D39)</f>
-        <v>3.3861277990168999</v>
+        <v>-1.4260249554366999</v>
       </c>
       <c r="L39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D39)</f>
-        <v>1.6390977443609001</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D39)</f>
-        <v>-0.15686274509803999</v>
+        <v>-1.1759581881533001</v>
       </c>
       <c r="N39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D39)</f>
-        <v>-2.8530670470756001</v>
+        <v>4.8084147257701</v>
       </c>
     </row>
     <row r="40" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45281</v>
+        <v>45357</v>
       </c>
       <c r="E40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D40)</f>
-        <v>1.1904761904762</v>
+        <v>0.90039392234102</v>
       </c>
       <c r="F40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D40)</f>
-        <v>1.3585984983910999</v>
+        <v>10.023866348448999</v>
       </c>
       <c r="G40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D40)</f>
-        <v>8.0399458361544003</v>
+        <v>1.6937669376694</v>
       </c>
       <c r="H40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D40)</f>
-        <v>2.7417746759721</v>
+        <v>1.1904761904762</v>
       </c>
       <c r="I40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D40)</f>
-        <v>1.0162601626015999</v>
+        <v>-0.76335877862596002</v>
       </c>
       <c r="J40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D40)</f>
-        <v>3.9610840861708998</v>
+        <v>-0.66390041493775998</v>
       </c>
       <c r="K40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D40)</f>
-        <v>-0.48913043478260998</v>
+        <v>0.26809651474531998</v>
       </c>
       <c r="L40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D40)</f>
-        <v>-1.9174041297935001</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D40)</f>
-        <v>1.2708498808577999</v>
+        <v>-0.77787381158168001</v>
       </c>
       <c r="N40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D40)</f>
-        <v>-1.0585744530698999</v>
+        <v>1.0630220197418001</v>
       </c>
     </row>
     <row r="41" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D41" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45280</v>
+        <v>45356</v>
       </c>
       <c r="E41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D41)</f>
-        <v>3.9282400247448002</v>
+        <v>-3.3713974986405999</v>
       </c>
       <c r="F41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D41)</f>
-        <v>-2.1172353455818</v>
+        <v>-3.4562211981567001</v>
       </c>
       <c r="G41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D41)</f>
-        <v>2.5338424158278001</v>
+        <v>-2.8947368421053001</v>
       </c>
       <c r="H41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D41)</f>
-        <v>-0.84033613445378996</v>
+        <v>-3.9215686274510002</v>
       </c>
       <c r="I41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D41)</f>
-        <v>-0.80645161290322998</v>
+        <v>-1.75</v>
       </c>
       <c r="J41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D41)</f>
-        <v>-2.3744911804613</v>
+        <v>1.4309764309763999</v>
       </c>
       <c r="K41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D41)</f>
-        <v>1.6013252346769999</v>
+        <v>-0.88573959255977996</v>
       </c>
       <c r="L41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D41)</f>
-        <v>-3.0042918454935998</v>
+        <v>-0.82644628099174</v>
       </c>
       <c r="M41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D41)</f>
-        <v>-0.86614173228346003</v>
+        <v>-4.0630182421227001</v>
       </c>
       <c r="N41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D41)</f>
-        <v>10.015527950311</v>
+        <v>2.0930232558139998</v>
       </c>
     </row>
     <row r="42" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D42" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45279</v>
+        <v>45355</v>
       </c>
       <c r="E42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D42)</f>
-        <v>4.0721068726862999</v>
+        <v>1.0439560439561</v>
       </c>
       <c r="F42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D42)</f>
-        <v>-1.8715659340659001</v>
+        <v>-1.8099547511312</v>
       </c>
       <c r="G42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D42)</f>
-        <v>10.003818251241</v>
+        <v>-0.13140604467806</v>
       </c>
       <c r="H42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D42)</f>
-        <v>0.44687189672293998</v>
+        <v>-0.32573289902279001</v>
       </c>
       <c r="I42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D42)</f>
-        <v>0.60851926977687998</v>
+        <v>1.010101010101</v>
       </c>
       <c r="J42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D42)</f>
-        <v>-0.18959913326111</v>
+        <v>2.0618556701031001</v>
       </c>
       <c r="K42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D42)</f>
-        <v>1.0039040713887</v>
+        <v>-1.3973799126638</v>
       </c>
       <c r="L42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D42)</f>
-        <v>-1.2432890647074999</v>
+        <v>-0.81967213114754001</v>
       </c>
       <c r="M42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D42)</f>
-        <v>-1.1673151750973001</v>
+        <v>4.4608055435253</v>
       </c>
       <c r="N42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D42)</f>
-        <v>4.0387722132472001</v>
+        <v>-0.23201856148491001</v>
       </c>
     </row>
     <row r="43" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D43" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45278</v>
+        <v>45354</v>
       </c>
       <c r="E43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D43)</f>
-        <v>6.6975785677486002</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D43)</f>
-        <v>-2.8361695028362002</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D43)</f>
-        <v>-0.24757189106836</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D43)</f>
-        <v>-1.66015625</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D43)</f>
-        <v>-2.3762376237624001</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D43)</f>
-        <v>-1.6253663735677999</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D43)</f>
-        <v>0.56085249579360996</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D43)</f>
-        <v>2.8405375953504999</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D43)</f>
-        <v>-2.6146267525578</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D43)</f>
-        <v>-4.5489591364687998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D44" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45277</v>
+        <v>45353</v>
       </c>
       <c r="E44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D44)</f>
@@ -2581,261 +2573,261 @@
     <row r="45" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D45" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45276</v>
+        <v>45352</v>
       </c>
       <c r="E45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D45)</f>
-        <v>0</v>
+        <v>1.4492753623187999</v>
       </c>
       <c r="F45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D45)</f>
-        <v>0</v>
+        <v>2.5522041763340999</v>
       </c>
       <c r="G45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D45)</f>
-        <v>0</v>
+        <v>0.19749835418039</v>
       </c>
       <c r="H45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D45)</f>
-        <v>0</v>
+        <v>-8.1366965012203002E-2</v>
       </c>
       <c r="I45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D45)</f>
-        <v>0</v>
+        <v>-0.25188916876575002</v>
       </c>
       <c r="J45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D45)</f>
-        <v>0</v>
+        <v>-8.5836909871242997E-2</v>
       </c>
       <c r="K45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D45)</f>
-        <v>0</v>
+        <v>8.7412587412585993E-2</v>
       </c>
       <c r="L45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D45)</f>
-        <v>0</v>
+        <v>-0.81300813008130002</v>
       </c>
       <c r="M45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D45)</f>
-        <v>0</v>
+        <v>-0.17293558149589</v>
       </c>
       <c r="N45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D45)</f>
-        <v>0</v>
+        <v>2.375296912114</v>
       </c>
     </row>
     <row r="46" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D46" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45275</v>
+        <v>45351</v>
       </c>
       <c r="E46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D46)</f>
-        <v>-5.0391389432485001</v>
+        <v>2.3972602739725999</v>
       </c>
       <c r="F46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D46)</f>
-        <v>0.26764804282367999</v>
+        <v>3.1100478468899002</v>
       </c>
       <c r="G46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D46)</f>
-        <v>9.9916212819438996</v>
+        <v>3.0529172320217</v>
       </c>
       <c r="H46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D46)</f>
-        <v>-1.4436958614052</v>
+        <v>3.7130801687764001</v>
       </c>
       <c r="I46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D46)</f>
-        <v>-0.19762845849801999</v>
+        <v>1.7948717948718</v>
       </c>
       <c r="J46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D46)</f>
-        <v>1.5284728797511</v>
+        <v>0.69144338807259997</v>
       </c>
       <c r="K46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D46)</f>
-        <v>0.39414414414413002</v>
+        <v>2.4171888988362</v>
       </c>
       <c r="L46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D46)</f>
-        <v>-1.5801515801516</v>
+        <v>0.81967213114754001</v>
       </c>
       <c r="M46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D46)</f>
-        <v>0.87920489296635995</v>
+        <v>3.0289532293987</v>
       </c>
       <c r="N46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D46)</f>
-        <v>-0.91673032849503</v>
+        <v>2.0193861066236001</v>
       </c>
     </row>
     <row r="47" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D47" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45274</v>
+        <v>45350</v>
       </c>
       <c r="E47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D47)</f>
-        <v>-4.5454545454544997</v>
+        <v>-9.5975232198141995</v>
       </c>
       <c r="F47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D47)</f>
-        <v>0.13400335008375</v>
+        <v>-9.9137931034483007</v>
       </c>
       <c r="G47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D47)</f>
-        <v>-2.0942408376959001E-2</v>
+        <v>-8.4472049689440993</v>
       </c>
       <c r="H47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D47)</f>
-        <v>-0.85877862595419996</v>
+        <v>-7.7821011673151999</v>
       </c>
       <c r="I47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D47)</f>
-        <v>0</v>
+        <v>-3.9408866995073999</v>
       </c>
       <c r="J47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D47)</f>
-        <v>-2.2089947089947</v>
+        <v>-1.1955593509821001</v>
       </c>
       <c r="K47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D47)</f>
-        <v>0.56625141562854997</v>
+        <v>-2.2747156605423999</v>
       </c>
       <c r="L47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D47)</f>
-        <v>-0.42007831968670001</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D47)</f>
-        <v>-0.90909090909089996</v>
+        <v>-3.2327586206897001</v>
       </c>
       <c r="N47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D47)</f>
-        <v>-3.1088082901553999</v>
+        <v>-4.4015444015443999</v>
       </c>
     </row>
     <row r="48" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D48" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45273</v>
+        <v>45349</v>
       </c>
       <c r="E48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D48)</f>
-        <v>9.7181895815541992</v>
+        <v>0.51867219917010998</v>
       </c>
       <c r="F48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D48)</f>
-        <v>-1.0770505385253</v>
+        <v>2.6548672566371998</v>
       </c>
       <c r="G48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D48)</f>
-        <v>0.80219548237282001</v>
+        <v>4.3421905379131998</v>
       </c>
       <c r="H48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D48)</f>
-        <v>0.14333492594363001</v>
+        <v>2.6357827476038</v>
       </c>
       <c r="I48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D48)</f>
-        <v>-0.58939096267191005</v>
+        <v>1.2468827930174999</v>
       </c>
       <c r="J48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D48)</f>
-        <v>-0.81343479401732</v>
+        <v>-0.17050298380220999</v>
       </c>
       <c r="K48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D48)</f>
-        <v>0.45506257110353998</v>
+        <v>1.0610079575597</v>
       </c>
       <c r="L48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D48)</f>
-        <v>3.5461515777057002</v>
+        <v>1.2448132780083001</v>
       </c>
       <c r="M48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D48)</f>
-        <v>-1.2715033657442001</v>
+        <v>1.2658227848101</v>
       </c>
       <c r="N48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D48)</f>
-        <v>-3.2927702219041</v>
+        <v>1.8882769472856</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D49" s="6">
         <f t="shared" ref="D49" ca="1" si="1">D48-1</f>
-        <v>45272</v>
+        <v>45348</v>
       </c>
       <c r="E49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D49)</f>
-        <v>0.63595737366792005</v>
+        <v>8.7422447828539003</v>
       </c>
       <c r="F49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D49)</f>
-        <v>-0.21494708994708001</v>
+        <v>5.1162790697674003</v>
       </c>
       <c r="G49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D49)</f>
-        <v>-1.9254658385093</v>
+        <v>2.0502645502646</v>
       </c>
       <c r="H49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D49)</f>
-        <v>-0.14312977099237001</v>
+        <v>1.2126111560226001</v>
       </c>
       <c r="I49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D49)</f>
-        <v>0.39447731755422999</v>
+        <v>1.5189873417721</v>
       </c>
       <c r="J49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D49)</f>
-        <v>-0.18334206390780999</v>
+        <v>-1.9230769230769</v>
       </c>
       <c r="K49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D49)</f>
-        <v>3.6556603773585001</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D49)</f>
-        <v>2.2540520165850002</v>
+        <v>-1.2295081967213</v>
       </c>
       <c r="M49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D49)</f>
-        <v>-1.1460258780037</v>
+        <v>0.26258205689276998</v>
       </c>
       <c r="N49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D49)</f>
-        <v>1.9708029197079999</v>
+        <v>0.31570639305447001</v>
       </c>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D50" s="6">
         <f t="shared" ref="D50" ca="1" si="2">D49-1</f>
-        <v>45271</v>
+        <v>45347</v>
       </c>
       <c r="E50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D50)</f>
-        <v>1.7666608361028</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D50)</f>
-        <v>2.3523438822135998</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D50)</f>
-        <v>0.31152647975078002</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D50)</f>
-        <v>1.2560386473430001</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D50)</f>
-        <v>2.4242424242423999</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D50)</f>
-        <v>-3.9272156041368002E-2</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D50)</f>
@@ -2843,21 +2835,21 @@
       </c>
       <c r="L50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D50)</f>
-        <v>0.59149162053537996</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D50)</f>
-        <v>0.22230455724343001</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D50)</f>
-        <v>5.6283731688512004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D51" s="6">
         <f t="shared" ref="D51" ca="1" si="3">D50-1</f>
-        <v>45270</v>
+        <v>45346</v>
       </c>
       <c r="E51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D51)</f>
@@ -2903,31 +2895,31 @@
     <row r="52" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D52" s="6">
         <f t="shared" ref="D52" ca="1" si="4">D51-1</f>
-        <v>45269</v>
+        <v>45345</v>
       </c>
       <c r="E52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D52)</f>
-        <v>0</v>
+        <v>1.3722126929673999</v>
       </c>
       <c r="F52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D52)</f>
-        <v>0</v>
+        <v>5.1344743276283999</v>
       </c>
       <c r="G52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D52)</f>
-        <v>0</v>
+        <v>3.8461538461538001</v>
       </c>
       <c r="H52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D52)</f>
-        <v>0</v>
+        <v>1.3934426229507999</v>
       </c>
       <c r="I52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D52)</f>
-        <v>0</v>
+        <v>0.25380710659898997</v>
       </c>
       <c r="J52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D52)</f>
-        <v>0</v>
+        <v>-3.9357429718875001</v>
       </c>
       <c r="K52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D52)</f>
@@ -2935,251 +2927,251 @@
       </c>
       <c r="L52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D52)</f>
-        <v>0</v>
+        <v>-0.40816326530613001</v>
       </c>
       <c r="M52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D52)</f>
-        <v>0</v>
+        <v>0.35133948177426999</v>
       </c>
       <c r="N52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D52)</f>
-        <v>0</v>
+        <v>0.15810276679842</v>
       </c>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D53" s="6">
         <f t="shared" ref="D53" ca="1" si="5">D52-1</f>
-        <v>45268</v>
+        <v>45344</v>
       </c>
       <c r="E53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D53)</f>
-        <v>4.3057836161283998</v>
+        <v>2.4004683840748999</v>
       </c>
       <c r="F53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D53)</f>
-        <v>2.3735273735273998</v>
+        <v>4.6035805626597996</v>
       </c>
       <c r="G53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D53)</f>
-        <v>0.41710114702814999</v>
+        <v>2.4630541871921001</v>
       </c>
       <c r="H53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D53)</f>
-        <v>-0.76701821668265002</v>
+        <v>0.57708161582851003</v>
       </c>
       <c r="I53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D53)</f>
-        <v>-3.3203125</v>
+        <v>1.025641025641</v>
       </c>
       <c r="J53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D53)</f>
-        <v>1.1520127118643999</v>
+        <v>8.8286713286712999</v>
       </c>
       <c r="K53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D53)</f>
-        <v>3.1630170316302002</v>
+        <v>8.8495575221236994E-2</v>
       </c>
       <c r="L53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D53)</f>
-        <v>1.2204482652748001</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D53)</f>
-        <v>3.7064492216449002E-2</v>
+        <v>1.0652463382157</v>
       </c>
       <c r="N53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D53)</f>
-        <v>3.5942492012780001</v>
+        <v>2.2635408245756001</v>
       </c>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D54" s="6">
         <f t="shared" ref="D54:D65" ca="1" si="6">D53-1</f>
-        <v>45267</v>
+        <v>45343</v>
       </c>
       <c r="E54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D54)</f>
-        <v>0.38461538461539002</v>
+        <v>0.58892815076559002</v>
       </c>
       <c r="F54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D54)</f>
-        <v>-2.9915966386555</v>
+        <v>2.8947368421053001</v>
       </c>
       <c r="G54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D54)</f>
-        <v>1.2671594508976001</v>
+        <v>1.7908309455586999</v>
       </c>
       <c r="H54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D54)</f>
-        <v>-0.42959427207637002</v>
+        <v>1.6764459346186</v>
       </c>
       <c r="I54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D54)</f>
-        <v>3.2258064516128999</v>
+        <v>-0.25575447570332999</v>
       </c>
       <c r="J54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D54)</f>
-        <v>-1.8583495776478001</v>
+        <v>0.17513134851137999</v>
       </c>
       <c r="K54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D54)</f>
-        <v>1.3563501849569</v>
+        <v>0.17730496453902</v>
       </c>
       <c r="L54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D54)</f>
-        <v>0.85152500387055996</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D54)</f>
-        <v>0.70921985815602995</v>
+        <v>0.71524362986141998</v>
       </c>
       <c r="N54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D54)</f>
-        <v>1.2126111560226001</v>
+        <v>0.89722675367047</v>
       </c>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D55" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45266</v>
+        <v>45342</v>
       </c>
       <c r="E55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D55)</f>
-        <v>0.55248618784531001</v>
+        <v>-1.7929438982070001</v>
       </c>
       <c r="F55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D55)</f>
-        <v>-1.3594164456233</v>
+        <v>2.4258760107817001</v>
       </c>
       <c r="G55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D55)</f>
-        <v>-0.25279123657045999</v>
+        <v>1.9722425127831</v>
       </c>
       <c r="H55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D55)</f>
-        <v>-0.47505938242280998</v>
+        <v>0.25210084033613001</v>
       </c>
       <c r="I55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D55)</f>
-        <v>0.60851926977687998</v>
+        <v>1.0335917312662</v>
       </c>
       <c r="J55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D55)</f>
-        <v>-2.3229246001522998</v>
+        <v>0.61674008810573</v>
       </c>
       <c r="K55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D55)</f>
-        <v>-3.3373063170441002</v>
+        <v>-1.9982623805387001</v>
       </c>
       <c r="L55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D55)</f>
-        <v>-0.73766712770860998</v>
+        <v>-0.40650406504064002</v>
       </c>
       <c r="M55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D55)</f>
-        <v>-0.59369202226344997</v>
+        <v>2.2394881170017999</v>
       </c>
       <c r="N55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D55)</f>
-        <v>2.0627062706271002</v>
+        <v>-0.1628664495114</v>
       </c>
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D56" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45265</v>
+        <v>45341</v>
       </c>
       <c r="E56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D56)</f>
-        <v>-4.7535520084196001</v>
+        <v>2.0058997050146998</v>
       </c>
       <c r="F56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D56)</f>
-        <v>-2.3632243444480001</v>
+        <v>4.2134831460674</v>
       </c>
       <c r="G56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D56)</f>
-        <v>-1.0010427528676</v>
+        <v>1.8601190476189999</v>
       </c>
       <c r="H56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D56)</f>
-        <v>-1.5434985968193999</v>
+        <v>0.84745762711864003</v>
       </c>
       <c r="I56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D56)</f>
-        <v>-0.80482897384305996</v>
+        <v>-1.0230179028133</v>
       </c>
       <c r="J56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D56)</f>
-        <v>-1.1543287327478</v>
+        <v>3.8426349496798</v>
       </c>
       <c r="K56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D56)</f>
-        <v>-4.9830124575310997</v>
+        <v>-2.8691983122362998</v>
       </c>
       <c r="L56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D56)</f>
-        <v>-1.2669751915636001</v>
+        <v>-1.9920318725099999</v>
       </c>
       <c r="M56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D56)</f>
-        <v>1.2396694214876001</v>
+        <v>-1.4414414414414001</v>
       </c>
       <c r="N56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D56)</f>
-        <v>-1.7828200972446999</v>
+        <v>2.8475711892797002</v>
       </c>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D57" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45264</v>
+        <v>45340</v>
       </c>
       <c r="E57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D57)</f>
-        <v>2.6837175792507</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D57)</f>
-        <v>-9.6255119953189006</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D57)</f>
-        <v>-2.8368794326240998</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D57)</f>
-        <v>-9.3457943925232004E-2</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D57)</f>
-        <v>1.2219959266802001</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D57)</f>
-        <v>-6.1469618464437001</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D57)</f>
-        <v>4.8071216617210997</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D57)</f>
-        <v>-0.21953065859196999</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D57)</f>
-        <v>1.7973231357552999</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D57)</f>
-        <v>1.0647010647010999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D58" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45263</v>
+        <v>45339</v>
       </c>
       <c r="E58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D58)</f>
@@ -3225,7 +3217,7 @@
     <row r="59" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D59" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45262</v>
+        <v>45338</v>
       </c>
       <c r="E59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D59)</f>
@@ -3271,115 +3263,115 @@
     <row r="60" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D60" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45261</v>
+        <v>45337</v>
       </c>
       <c r="E60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D60)</f>
-        <v>0.67089755213056002</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D60)</f>
-        <v>3.0138637733574001</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D60)</f>
-        <v>1.0856206472757</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D60)</f>
-        <v>-1.8348623853210999</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D60)</f>
-        <v>-0.60728744939271995</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D60)</f>
-        <v>0.21241444418221</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D60)</f>
-        <v>1.2012012012012001</v>
+        <v>0</v>
       </c>
       <c r="L60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D60)</f>
-        <v>-1.7843866171003999</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D60)</f>
-        <v>-0.30499428135723</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D60)</f>
-        <v>-0.65093572009763001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D61" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45260</v>
+        <v>45336</v>
       </c>
       <c r="E61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D61)</f>
-        <v>-3.4150612959719999</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D61)</f>
-        <v>-3.3920512447226998</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D61)</f>
-        <v>2.9957805907172999</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D61)</f>
-        <v>-9.1659028414297003E-2</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D61)</f>
-        <v>-0.4032258064516</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D61)</f>
-        <v>-1.2584479142391001</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D61)</f>
-        <v>-5.0199657729606999</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D61)</f>
-        <v>-2.1462349945435002</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D61)</f>
-        <v>3.8138825324185999E-2</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D61)</f>
-        <v>-4.1341653666146998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D62" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45259</v>
+        <v>45335</v>
       </c>
       <c r="E62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D62)</f>
-        <v>0.68770939869512004</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D62)</f>
-        <v>6.6118267887629996</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D62)</f>
-        <v>-0.85756117966953005</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D62)</f>
-        <v>-0.54694621695533996</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D62)</f>
@@ -3387,79 +3379,79 @@
       </c>
       <c r="J62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D62)</f>
-        <v>2.7784431137724002</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D62)</f>
-        <v>0.57372346528974005</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D62)</f>
-        <v>0.37975607974876002</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D62)</f>
-        <v>1.4705882352941</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D62)</f>
-        <v>-1.2326656394452999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D63" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45258</v>
+        <v>45334</v>
       </c>
       <c r="E63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D63)</f>
-        <v>1.9047619047619</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D63)</f>
-        <v>2.9397667359002999</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D63)</f>
-        <v>1.4643463497453</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D63)</f>
-        <v>-1.3489208633092999</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D63)</f>
-        <v>-0.40160642570282001</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D63)</f>
-        <v>-0.76063703351556999</v>
+        <v>0</v>
       </c>
       <c r="K63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D63)</f>
-        <v>2.8925619834710998</v>
+        <v>0</v>
       </c>
       <c r="L63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D63)</f>
-        <v>1.2047302291205</v>
+        <v>0</v>
       </c>
       <c r="M63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D63)</f>
-        <v>2.9482071713146998</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D63)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D64" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45257</v>
+        <v>45333</v>
       </c>
       <c r="E64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D64)</f>
-        <v>2.1288309781610999</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D64)</f>
@@ -3467,41 +3459,41 @@
       </c>
       <c r="G64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D64)</f>
-        <v>-2.9454170957775001</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D64)</f>
-        <v>5.6532066508312999</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D64)</f>
-        <v>1.219512195122</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D64)</f>
-        <v>3.4932349323493002</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D64)</f>
-        <v>2.6666666666666998</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D64)</f>
-        <v>1.7216750620254</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D64)</f>
-        <v>0.52062474969965</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D64)</f>
-        <v>0.34013605442178002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D65" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45256</v>
+        <v>45332</v>
       </c>
       <c r="E65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D65)</f>
